--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/MN/trans/TTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149102A2-9349-4738-B4E4-3E9E470ECE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07EEBDFE-EACB-6144-8A96-D5F03DDD4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="950">
   <si>
     <t>Source:</t>
   </si>
@@ -2898,6 +2898,9 @@
   </si>
   <si>
     <t>Total sales (thousands), AEO</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
   </si>
 </sst>
 </file>
@@ -3151,7 +3154,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3223,6 +3226,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4727,25 +4731,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="56.28515625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.1640625" style="15"/>
+    <col min="2" max="2" width="56.33203125" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="15" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1" s="49">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4753,502 +4763,502 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="47" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B41" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B42" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="47" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="19"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B61" s="20"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B62" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B64" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="15" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="15" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B124" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B125" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B126" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B127" s="15" t="s">
         <v>55</v>
       </c>
@@ -5275,13 +5285,13 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -5410,7 +5420,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -5539,7 +5549,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5668,7 +5678,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -5797,7 +5807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5926,7 +5936,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -6055,7 +6065,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -6329,13 +6339,13 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -6464,7 +6474,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -6593,7 +6603,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -6722,7 +6732,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -6851,7 +6861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -6980,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -7109,7 +7119,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -7238,7 +7248,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -7381,13 +7391,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -7516,7 +7526,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -7645,7 +7655,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -7774,7 +7784,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -7903,7 +7913,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -8032,7 +8042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -8161,7 +8171,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -8290,7 +8300,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -8433,13 +8443,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -8568,7 +8578,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -8697,7 +8707,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -8826,7 +8836,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -8955,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -9084,7 +9094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -9213,7 +9223,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -9342,7 +9352,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -9485,13 +9495,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -9620,7 +9630,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -9749,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -9878,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -10007,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -10136,7 +10146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -10265,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -10394,7 +10404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -10537,13 +10547,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -10672,7 +10682,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10801,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -10930,7 +10940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -11059,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -11188,7 +11198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -11317,7 +11327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -11446,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -11589,13 +11599,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -11724,7 +11734,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -11853,7 +11863,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -11982,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12111,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -12240,7 +12250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -12369,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -12498,7 +12508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -12641,13 +12651,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -12776,7 +12786,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -12905,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -13034,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -13163,7 +13173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -13292,7 +13302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -13421,7 +13431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -13550,7 +13560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -13693,13 +13703,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -13828,7 +13838,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -13957,7 +13967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14086,7 +14096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -14215,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -14344,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -14473,7 +14483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -14602,7 +14612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -14745,13 +14755,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -14880,7 +14890,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -15009,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -15138,7 +15148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -15267,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -15396,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -15525,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -15654,7 +15664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -15794,9 +15804,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15894,27 +15904,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -16021,7 +16031,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -16029,7 +16039,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -16037,7 +16047,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -16147,7 +16157,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -16257,7 +16267,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -16367,7 +16377,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -16375,7 +16385,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -16485,7 +16495,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -16595,7 +16605,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -16705,7 +16715,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -16815,7 +16825,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -16925,7 +16935,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -17035,7 +17045,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -17145,7 +17155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -17255,7 +17265,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -17365,7 +17375,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -17475,7 +17485,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -17585,7 +17595,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -17695,7 +17705,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -17805,7 +17815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -17915,7 +17925,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -18025,7 +18035,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -18135,7 +18145,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18245,7 +18255,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -18253,7 +18263,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -18261,7 +18271,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -18371,7 +18381,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -18481,7 +18491,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -18591,7 +18601,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -18599,7 +18609,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -18709,7 +18719,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -18819,7 +18829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -18929,7 +18939,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -19039,7 +19049,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -19149,7 +19159,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -19259,7 +19269,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -19369,7 +19379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -19479,7 +19489,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -19589,7 +19599,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -19699,7 +19709,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -19809,7 +19819,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -19919,7 +19929,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -20029,7 +20039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -20139,7 +20149,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -20249,7 +20259,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20359,7 +20369,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20469,7 +20479,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20579,7 +20589,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20689,7 +20699,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20799,7 +20809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -20810,7 +20820,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -20920,7 +20930,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -21030,7 +21040,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -21140,7 +21150,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -21250,7 +21260,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -21360,7 +21370,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -21470,7 +21480,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -21580,7 +21590,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -21690,7 +21700,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21800,7 +21810,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>305</v>
       </c>
@@ -21910,7 +21920,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>308</v>
       </c>
@@ -22020,7 +22030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22146,13 +22156,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -22281,7 +22291,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -22410,7 +22420,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -22539,7 +22549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -22668,7 +22678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -22797,7 +22807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -22926,7 +22936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -23055,7 +23065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -23198,13 +23208,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -23333,7 +23343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -23431,7 +23441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -23529,7 +23539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -23627,7 +23637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -23725,7 +23735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -23823,7 +23833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -23921,7 +23931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -24035,9 +24045,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -24135,27 +24145,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -24262,7 +24272,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -24270,7 +24280,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -24278,7 +24288,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -24388,7 +24398,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -24498,7 +24508,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -24608,7 +24618,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -24616,7 +24626,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -24726,7 +24736,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -24836,7 +24846,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -24946,7 +24956,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -25056,7 +25066,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -25166,7 +25176,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -25276,7 +25286,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -25386,7 +25396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -25496,7 +25506,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -25606,7 +25616,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -25716,7 +25726,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -25826,7 +25836,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -25936,7 +25946,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -26046,7 +26056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -26156,7 +26166,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -26266,7 +26276,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -26376,7 +26386,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -26384,7 +26394,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -26392,7 +26402,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -26502,7 +26512,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -26612,7 +26622,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -26722,7 +26732,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -26730,7 +26740,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -26840,7 +26850,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -26950,7 +26960,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -27060,7 +27070,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -27170,7 +27180,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -27280,7 +27290,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -27390,7 +27400,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -27500,7 +27510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -27610,7 +27620,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -27720,7 +27730,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -27830,7 +27840,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -27940,7 +27950,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -28050,7 +28060,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -28160,7 +28170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -28270,7 +28280,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -28380,7 +28390,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -28490,7 +28500,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -28614,29 +28624,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>931</v>
       </c>
@@ -28671,7 +28681,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -28706,7 +28716,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -28741,7 +28751,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -28776,7 +28786,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -28811,7 +28821,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -28846,7 +28856,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -28881,7 +28891,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -28916,7 +28926,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -28951,7 +28961,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -28986,7 +28996,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -29021,7 +29031,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -29056,7 +29066,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -29091,7 +29101,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -29126,7 +29136,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -29161,7 +29171,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -29196,7 +29206,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -29231,7 +29241,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -29266,7 +29276,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -29301,7 +29311,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -29336,7 +29346,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -29371,7 +29381,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -29406,7 +29416,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -29441,7 +29451,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -29476,7 +29486,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -29511,7 +29521,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -29546,7 +29556,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -29581,7 +29591,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -29616,7 +29626,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -29651,7 +29661,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -29686,7 +29696,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -29721,7 +29731,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -29756,7 +29766,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -29777,9 +29787,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -29877,27 +29887,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -30004,7 +30014,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -30012,7 +30022,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>406</v>
       </c>
@@ -30020,7 +30030,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -30028,7 +30038,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -30138,7 +30148,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -30248,7 +30258,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -30358,7 +30368,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -30468,7 +30478,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>416</v>
       </c>
@@ -30578,7 +30588,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>288</v>
       </c>
@@ -30688,7 +30698,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>419</v>
       </c>
@@ -30798,7 +30808,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -30908,7 +30918,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -31018,7 +31028,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>424</v>
       </c>
@@ -31128,7 +31138,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -31136,7 +31146,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -31246,7 +31256,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>410</v>
       </c>
@@ -31356,7 +31366,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>412</v>
       </c>
@@ -31466,7 +31476,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>414</v>
       </c>
@@ -31576,7 +31586,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -31686,7 +31696,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -31796,7 +31806,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -31906,7 +31916,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>421</v>
       </c>
@@ -32016,7 +32026,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -32126,7 +32136,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>436</v>
       </c>
@@ -32236,7 +32246,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -32244,7 +32254,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -32354,7 +32364,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>410</v>
       </c>
@@ -32464,7 +32474,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -32574,7 +32584,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>414</v>
       </c>
@@ -32684,7 +32694,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>416</v>
       </c>
@@ -32794,7 +32804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -32904,7 +32914,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -33014,7 +33024,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>421</v>
       </c>
@@ -33124,7 +33134,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -33234,7 +33244,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -33344,7 +33354,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -33454,7 +33464,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -33462,7 +33472,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -33470,7 +33480,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -33580,7 +33590,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -33690,7 +33700,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -33800,7 +33810,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>414</v>
       </c>
@@ -33910,7 +33920,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>416</v>
       </c>
@@ -34020,7 +34030,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -34130,7 +34140,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -34240,7 +34250,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -34350,7 +34360,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -34460,7 +34470,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -34570,7 +34580,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -34578,7 +34588,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -34688,7 +34698,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -34798,7 +34808,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>412</v>
       </c>
@@ -34908,7 +34918,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>414</v>
       </c>
@@ -35018,7 +35028,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>416</v>
       </c>
@@ -35128,7 +35138,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -35238,7 +35248,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>419</v>
       </c>
@@ -35348,7 +35358,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -35458,7 +35468,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -35568,7 +35578,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>436</v>
       </c>
@@ -35678,7 +35688,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>438</v>
       </c>
@@ -35686,7 +35696,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>408</v>
       </c>
@@ -35796,7 +35806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -35906,7 +35916,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>412</v>
       </c>
@@ -36016,7 +36026,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>414</v>
       </c>
@@ -36126,7 +36136,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -36236,7 +36246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -36346,7 +36356,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>419</v>
       </c>
@@ -36456,7 +36466,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>421</v>
       </c>
@@ -36566,7 +36576,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>300</v>
       </c>
@@ -36676,7 +36686,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>448</v>
       </c>
@@ -36786,7 +36796,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -36797,7 +36807,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -36907,7 +36917,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -37017,7 +37027,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -37127,7 +37137,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>414</v>
       </c>
@@ -37237,7 +37247,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>416</v>
       </c>
@@ -37347,7 +37357,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>288</v>
       </c>
@@ -37457,7 +37467,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>419</v>
       </c>
@@ -37567,7 +37577,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>421</v>
       </c>
@@ -37677,7 +37687,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>300</v>
       </c>
@@ -37787,7 +37797,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>493</v>
       </c>
@@ -37897,7 +37907,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>495</v>
       </c>
@@ -37905,7 +37915,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -37913,7 +37923,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>408</v>
       </c>
@@ -38023,7 +38033,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -38133,7 +38143,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -38243,7 +38253,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -38353,7 +38363,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -38463,7 +38473,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -38573,7 +38583,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>419</v>
       </c>
@@ -38683,7 +38693,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -38793,7 +38803,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -38903,7 +38913,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -39010,7 +39020,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>426</v>
       </c>
@@ -39018,7 +39028,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>408</v>
       </c>
@@ -39128,7 +39138,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -39238,7 +39248,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -39348,7 +39358,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>414</v>
       </c>
@@ -39458,7 +39468,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>416</v>
       </c>
@@ -39568,7 +39578,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -39678,7 +39688,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -39788,7 +39798,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -39898,7 +39908,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -40008,7 +40018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>516</v>
       </c>
@@ -40115,7 +40125,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -40123,7 +40133,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -40233,7 +40243,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>410</v>
       </c>
@@ -40343,7 +40353,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -40453,7 +40463,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>414</v>
       </c>
@@ -40563,7 +40573,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -40673,7 +40683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -40783,7 +40793,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -40893,7 +40903,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -41003,7 +41013,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -41113,7 +41123,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>527</v>
       </c>
@@ -41220,7 +41230,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>529</v>
       </c>
@@ -41327,7 +41337,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>531</v>
       </c>
@@ -41335,7 +41345,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -41343,7 +41353,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -41453,7 +41463,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -41563,7 +41573,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>412</v>
       </c>
@@ -41673,7 +41683,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>414</v>
       </c>
@@ -41783,7 +41793,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -41893,7 +41903,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -42003,7 +42013,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -42113,7 +42123,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -42223,7 +42233,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -42333,7 +42343,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>424</v>
       </c>
@@ -42443,7 +42453,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -42451,7 +42461,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>408</v>
       </c>
@@ -42561,7 +42571,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -42671,7 +42681,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -42781,7 +42791,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>414</v>
       </c>
@@ -42891,7 +42901,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>416</v>
       </c>
@@ -43001,7 +43011,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -43111,7 +43121,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>419</v>
       </c>
@@ -43221,7 +43231,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>421</v>
       </c>
@@ -43331,7 +43341,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>300</v>
       </c>
@@ -43441,7 +43451,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -43551,7 +43561,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>438</v>
       </c>
@@ -43559,7 +43569,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -43669,7 +43679,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>410</v>
       </c>
@@ -43779,7 +43789,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>412</v>
       </c>
@@ -43889,7 +43899,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>414</v>
       </c>
@@ -43999,7 +44009,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -44109,7 +44119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>288</v>
       </c>
@@ -44219,7 +44229,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -44329,7 +44339,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>421</v>
       </c>
@@ -44439,7 +44449,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -44549,7 +44559,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>448</v>
       </c>
@@ -44659,7 +44669,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -44769,7 +44779,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -44777,7 +44787,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>495</v>
       </c>
@@ -44785,7 +44795,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>407</v>
       </c>
@@ -44793,7 +44803,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>408</v>
       </c>
@@ -44903,7 +44913,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>410</v>
       </c>
@@ -45013,7 +45023,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>412</v>
       </c>
@@ -45123,7 +45133,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>414</v>
       </c>
@@ -45233,7 +45243,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>416</v>
       </c>
@@ -45343,7 +45353,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -45453,7 +45463,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -45563,7 +45573,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>421</v>
       </c>
@@ -45673,7 +45683,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>300</v>
       </c>
@@ -45783,7 +45793,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>505</v>
       </c>
@@ -45890,7 +45900,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>426</v>
       </c>
@@ -45898,7 +45908,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>408</v>
       </c>
@@ -46008,7 +46018,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>410</v>
       </c>
@@ -46118,7 +46128,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>412</v>
       </c>
@@ -46228,7 +46238,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>414</v>
       </c>
@@ -46338,7 +46348,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>416</v>
       </c>
@@ -46448,7 +46458,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>288</v>
       </c>
@@ -46558,7 +46568,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>419</v>
       </c>
@@ -46668,7 +46678,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>421</v>
       </c>
@@ -46778,7 +46788,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -46888,7 +46898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>516</v>
       </c>
@@ -46995,7 +47005,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>438</v>
       </c>
@@ -47003,7 +47013,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>408</v>
       </c>
@@ -47113,7 +47123,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -47223,7 +47233,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>412</v>
       </c>
@@ -47333,7 +47343,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>414</v>
       </c>
@@ -47443,7 +47453,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -47553,7 +47563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>288</v>
       </c>
@@ -47663,7 +47673,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -47773,7 +47783,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -47883,7 +47893,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -47993,7 +48003,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>527</v>
       </c>
@@ -48100,7 +48110,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>529</v>
       </c>
@@ -48207,7 +48217,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -48215,7 +48225,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -48223,7 +48233,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -48333,7 +48343,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -48443,7 +48453,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -48553,7 +48563,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -48663,7 +48673,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -48773,7 +48783,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -48883,7 +48893,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -48993,7 +49003,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -49103,7 +49113,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>300</v>
       </c>
@@ -49213,7 +49223,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -49323,7 +49333,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -49331,7 +49341,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>408</v>
       </c>
@@ -49441,7 +49451,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>410</v>
       </c>
@@ -49551,7 +49561,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>412</v>
       </c>
@@ -49661,7 +49671,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>414</v>
       </c>
@@ -49771,7 +49781,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>416</v>
       </c>
@@ -49881,7 +49891,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -49991,7 +50001,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -50101,7 +50111,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -50211,7 +50221,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -50321,7 +50331,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -50431,7 +50441,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -50439,7 +50449,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -50549,7 +50559,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -50659,7 +50669,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -50769,7 +50779,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -50879,7 +50889,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -50989,7 +50999,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>288</v>
       </c>
@@ -51099,7 +51109,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -51209,7 +51219,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>421</v>
       </c>
@@ -51319,7 +51329,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -51429,7 +51439,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -51539,7 +51549,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>276</v>
       </c>
@@ -51649,7 +51659,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -51657,7 +51667,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>626</v>
       </c>
@@ -51767,7 +51777,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>628</v>
       </c>
@@ -51877,7 +51887,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>630</v>
       </c>
@@ -51885,7 +51895,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>631</v>
       </c>
@@ -51995,7 +52005,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>633</v>
       </c>
@@ -52105,7 +52115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>635</v>
       </c>
@@ -52215,7 +52225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>637</v>
       </c>
@@ -52325,7 +52335,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -52333,7 +52343,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>639</v>
       </c>
@@ -52443,7 +52453,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>628</v>
       </c>
@@ -52553,7 +52563,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>630</v>
       </c>
@@ -52561,7 +52571,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>631</v>
       </c>
@@ -52671,7 +52681,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>633</v>
       </c>
@@ -52781,7 +52791,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>635</v>
       </c>
@@ -52891,7 +52901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>637</v>
       </c>
@@ -53001,7 +53011,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -53009,7 +53019,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>646</v>
       </c>
@@ -53119,7 +53129,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>648</v>
       </c>
@@ -53229,7 +53239,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>650</v>
       </c>
@@ -53339,7 +53349,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>630</v>
       </c>
@@ -53347,7 +53357,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -53457,7 +53467,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>633</v>
       </c>
@@ -53567,7 +53577,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>635</v>
       </c>
@@ -53677,7 +53687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>637</v>
       </c>
@@ -53801,18 +53811,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -53838,7 +53848,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -53865,7 +53875,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -53893,7 +53903,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -53919,7 +53929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -53945,7 +53955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -53971,7 +53981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -53997,11 +54007,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -54023,19 +54033,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -54061,7 +54071,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -54089,7 +54099,7 @@
       <c r="I2" s="34"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -54116,7 +54126,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -54142,7 +54152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -54168,7 +54178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -54194,7 +54204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -54220,7 +54230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -54242,143 +54252,143 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="28.5" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="47" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
@@ -54393,7 +54403,7 @@
       <c r="N35" s="43"/>
       <c r="O35" s="43"/>
     </row>
-    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -54406,7 +54416,7 @@
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
     </row>
-    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -54419,7 +54429,7 @@
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
     </row>
-    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -54434,17 +54444,17 @@
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K45" s="15" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>947</v>
       </c>
@@ -54453,7 +54463,7 @@
         <v>1.326343</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="15" t="s">
         <v>948</v>
       </c>
@@ -54462,7 +54472,7 @@
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
         <v>942</v>
       </c>
@@ -54492,20 +54502,20 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="15" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="15"/>
-    <col min="8" max="9" width="9.140625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="15"/>
+    <col min="7" max="7" width="9.1640625" style="15"/>
+    <col min="8" max="9" width="9.1640625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>103</v>
       </c>
@@ -54524,7 +54534,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
@@ -54541,7 +54551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
@@ -54558,7 +54568,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
@@ -54575,12 +54585,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -54594,7 +54604,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
@@ -54608,7 +54618,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -54622,7 +54632,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
@@ -54764,7 +54774,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -54909,7 +54919,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
@@ -55050,7 +55060,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
@@ -55189,7 +55199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
@@ -55330,7 +55340,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
@@ -55470,7 +55480,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C15" s="15" t="s">
         <v>125</v>
       </c>
@@ -55611,7 +55621,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31" t="s">
@@ -55754,7 +55764,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
@@ -55900,7 +55910,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C18" s="15" t="s">
         <v>2</v>
       </c>
@@ -56040,7 +56050,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C19" s="15" t="s">
         <v>3</v>
       </c>
@@ -56179,7 +56189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C20" s="15" t="s">
         <v>4</v>
       </c>
@@ -56318,7 +56328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
@@ -56459,7 +56469,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C22" s="15" t="s">
         <v>125</v>
       </c>
@@ -56600,7 +56610,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31" t="s">
@@ -56743,7 +56753,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
@@ -56889,7 +56899,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C25" s="15" t="s">
         <v>2</v>
       </c>
@@ -57030,7 +57040,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C26" s="15" t="s">
         <v>3</v>
       </c>
@@ -57171,7 +57181,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C27" s="15" t="s">
         <v>4</v>
       </c>
@@ -57310,7 +57320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
@@ -57451,7 +57461,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C29" s="15" t="s">
         <v>125</v>
       </c>
@@ -57592,7 +57602,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
@@ -57735,7 +57745,7 @@
         <v>0.17108784051909381</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>13</v>
       </c>
@@ -57880,7 +57890,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C32" s="15" t="s">
         <v>2</v>
       </c>
@@ -58021,7 +58031,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C33" s="15" t="s">
         <v>3</v>
       </c>
@@ -58160,7 +58170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C34" s="15" t="s">
         <v>4</v>
       </c>
@@ -58299,7 +58309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C35" s="15" t="s">
         <v>5</v>
       </c>
@@ -58440,7 +58450,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C36" s="15" t="s">
         <v>125</v>
       </c>
@@ -58581,7 +58591,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31" t="s">
@@ -58724,7 +58734,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
@@ -58869,7 +58879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -59008,7 +59018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C40" s="15" t="s">
         <v>3</v>
       </c>
@@ -59147,7 +59157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" s="30"/>
       <c r="C41" s="15" t="s">
         <v>4</v>
@@ -59287,7 +59297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" s="30"/>
       <c r="C42" s="15" t="s">
         <v>5</v>
@@ -59427,7 +59437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" s="30"/>
       <c r="C43" s="15" t="s">
         <v>125</v>
@@ -59567,7 +59577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31" t="s">
@@ -59708,7 +59718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" s="30" t="s">
         <v>14</v>
       </c>
@@ -59853,7 +59863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C46" s="15" t="s">
         <v>2</v>
       </c>
@@ -59992,7 +60002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C47" s="15" t="s">
         <v>3</v>
       </c>
@@ -60131,7 +60141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C48" s="15" t="s">
         <v>4</v>
       </c>
@@ -60270,7 +60280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C49" s="15" t="s">
         <v>5</v>
       </c>
@@ -60409,7 +60419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C50" s="15" t="s">
         <v>125</v>
       </c>
@@ -60548,7 +60558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31" t="s">
@@ -60689,7 +60699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>15</v>
       </c>
@@ -60835,7 +60845,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C53" s="15" t="s">
         <v>2</v>
       </c>
@@ -60974,7 +60984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C54" s="15" t="s">
         <v>3</v>
       </c>
@@ -61113,7 +61123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C55" s="15" t="s">
         <v>4</v>
       </c>
@@ -61253,7 +61263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="C56" s="15" t="s">
         <v>5</v>
@@ -61393,7 +61403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="C57" s="15" t="s">
         <v>125</v>
@@ -61533,7 +61543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31" t="s">
@@ -61674,7 +61684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A59" s="30" t="s">
         <v>15</v>
       </c>
@@ -61819,7 +61829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
       <c r="C60" s="15" t="s">
         <v>2</v>
@@ -61959,7 +61969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A61" s="30"/>
       <c r="C61" s="15" t="s">
         <v>3</v>
@@ -62099,7 +62109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C62" s="15" t="s">
         <v>4</v>
       </c>
@@ -62238,7 +62248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C63" s="15" t="s">
         <v>5</v>
       </c>
@@ -62377,7 +62387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C64" s="15" t="s">
         <v>125</v>
       </c>
@@ -62516,7 +62526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31" t="s">
@@ -62657,7 +62667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>16</v>
       </c>
@@ -62802,7 +62812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C67" s="15" t="s">
         <v>2</v>
       </c>
@@ -62941,7 +62951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C68" s="15" t="s">
         <v>3</v>
       </c>
@@ -63080,7 +63090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C69" s="15" t="s">
         <v>4</v>
       </c>
@@ -63219,7 +63229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C70" s="15" t="s">
         <v>5</v>
       </c>
@@ -63358,7 +63368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C71" s="15" t="s">
         <v>125</v>
       </c>
@@ -63497,7 +63507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31" t="s">
@@ -63638,7 +63648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A73" s="30" t="s">
         <v>16</v>
       </c>
@@ -63783,7 +63793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C74" s="15" t="s">
         <v>2</v>
       </c>
@@ -63922,7 +63932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C75" s="15" t="s">
         <v>3</v>
       </c>
@@ -64061,7 +64071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C76" s="15" t="s">
         <v>4</v>
       </c>
@@ -64200,7 +64210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C77" s="15" t="s">
         <v>5</v>
       </c>
@@ -64339,7 +64349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C78" s="15" t="s">
         <v>125</v>
       </c>
@@ -64478,7 +64488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31" t="s">
@@ -64619,7 +64629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>17</v>
       </c>
@@ -64765,7 +64775,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C81" s="15" t="s">
         <v>2</v>
       </c>
@@ -64905,7 +64915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C82" s="15" t="s">
         <v>3</v>
       </c>
@@ -65044,7 +65054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C83" s="15" t="s">
         <v>4</v>
       </c>
@@ -65184,7 +65194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C84" s="15" t="s">
         <v>5</v>
       </c>
@@ -65324,7 +65334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C85" s="15" t="s">
         <v>125</v>
       </c>
@@ -65464,7 +65474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31" t="s">
@@ -65606,7 +65616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A87" s="30" t="s">
         <v>17</v>
       </c>
@@ -65751,7 +65761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C88" s="15" t="s">
         <v>2</v>
       </c>
@@ -65890,7 +65900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C89" s="15" t="s">
         <v>3</v>
       </c>
@@ -66029,7 +66039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C90" s="15" t="s">
         <v>4</v>
       </c>
@@ -66168,7 +66178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C91" s="15" t="s">
         <v>5</v>
       </c>
@@ -66307,7 +66317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C92" s="15" t="s">
         <v>125</v>
       </c>
@@ -66446,7 +66456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/MN/trans/TTS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07EEBDFE-EACB-6144-8A96-D5F03DDD4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149102A2-9349-4738-B4E4-3E9E470ECE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="949">
   <si>
     <t>Source:</t>
   </si>
@@ -2898,9 +2898,6 @@
   </si>
   <si>
     <t>Total sales (thousands), AEO</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
   </si>
 </sst>
 </file>
@@ -3154,7 +3151,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3226,7 +3223,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4731,31 +4727,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="15"/>
-    <col min="2" max="2" width="56.33203125" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="56.28515625" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>911</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>949</v>
-      </c>
-      <c r="C1" s="49">
-        <v>44635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4763,502 +4753,502 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="44" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="47" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="7">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B58" s="19"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" s="20"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
         <v>55</v>
       </c>
@@ -5285,13 +5275,13 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -5549,7 +5539,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5678,7 +5668,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -5807,7 +5797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5936,7 +5926,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -6065,7 +6055,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -6194,7 +6184,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -6339,13 +6329,13 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -6474,7 +6464,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -6603,7 +6593,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -6732,7 +6722,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -6861,7 +6851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -6990,7 +6980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -7119,7 +7109,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -7248,7 +7238,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -7391,13 +7381,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -7526,7 +7516,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -7655,7 +7645,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -7784,7 +7774,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -7913,7 +7903,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -8042,7 +8032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -8171,7 +8161,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -8300,7 +8290,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -8443,13 +8433,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -8578,7 +8568,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -8707,7 +8697,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -8836,7 +8826,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -8965,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -9094,7 +9084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -9223,7 +9213,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -9352,7 +9342,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -9495,13 +9485,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -9630,7 +9620,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -9759,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -9888,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -10017,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -10146,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -10275,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -10404,7 +10394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -10547,13 +10537,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -10682,7 +10672,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10811,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -10940,7 +10930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -11069,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -11198,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -11327,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -11456,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -11599,13 +11589,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -11734,7 +11724,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -11863,7 +11853,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -11992,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12121,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -12250,7 +12240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -12379,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -12508,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -12651,13 +12641,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -12786,7 +12776,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -12915,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -13044,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -13173,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -13302,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -13431,7 +13421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -13560,7 +13550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -13703,13 +13693,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -13838,7 +13828,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -13967,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14096,7 +14086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -14225,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -14354,7 +14344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -14483,7 +14473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -14612,7 +14602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -14755,13 +14745,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -14890,7 +14880,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -15019,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -15148,7 +15138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -15277,7 +15267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -15406,7 +15396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -15535,7 +15525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -15664,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -15804,9 +15794,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15904,27 +15894,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -16031,7 +16021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -16039,7 +16029,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -16047,7 +16037,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -16157,7 +16147,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -16267,7 +16257,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -16377,7 +16367,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -16385,7 +16375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -16495,7 +16485,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -16605,7 +16595,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -16715,7 +16705,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -16825,7 +16815,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -16935,7 +16925,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -17045,7 +17035,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -17155,7 +17145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -17265,7 +17255,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -17375,7 +17365,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -17485,7 +17475,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -17595,7 +17585,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -17705,7 +17695,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -17815,7 +17805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -17925,7 +17915,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -18035,7 +18025,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -18145,7 +18135,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -18255,7 +18245,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -18263,7 +18253,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -18271,7 +18261,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -18381,7 +18371,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -18491,7 +18481,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -18601,7 +18591,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>233</v>
       </c>
@@ -18609,7 +18599,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -18719,7 +18709,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -18829,7 +18819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>179</v>
       </c>
@@ -18939,7 +18929,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>182</v>
       </c>
@@ -19049,7 +19039,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -19159,7 +19149,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>188</v>
       </c>
@@ -19269,7 +19259,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>191</v>
       </c>
@@ -19379,7 +19369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -19489,7 +19479,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>197</v>
       </c>
@@ -19599,7 +19589,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>200</v>
       </c>
@@ -19709,7 +19699,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -19819,7 +19809,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>206</v>
       </c>
@@ -19929,7 +19919,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -20039,7 +20029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -20149,7 +20139,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>263</v>
       </c>
@@ -20259,7 +20249,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>116</v>
       </c>
@@ -20369,7 +20359,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -20479,7 +20469,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -20589,7 +20579,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -20699,7 +20689,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -20809,7 +20799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>276</v>
       </c>
@@ -20820,7 +20810,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>279</v>
       </c>
@@ -20930,7 +20920,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -21040,7 +21030,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>285</v>
       </c>
@@ -21150,7 +21140,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>288</v>
       </c>
@@ -21260,7 +21250,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -21370,7 +21360,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>294</v>
       </c>
@@ -21480,7 +21470,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>297</v>
       </c>
@@ -21590,7 +21580,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>300</v>
       </c>
@@ -21700,7 +21690,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -21810,7 +21800,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>305</v>
       </c>
@@ -21920,7 +21910,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>308</v>
       </c>
@@ -22030,7 +22020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22156,13 +22146,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -22291,7 +22281,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -22420,7 +22410,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -22549,7 +22539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -22678,7 +22668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -22807,7 +22797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -22936,7 +22926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -23065,7 +23055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -23208,13 +23198,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>128</v>
       </c>
@@ -23343,7 +23333,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -23441,7 +23431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -23539,7 +23529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -23637,7 +23627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -23735,7 +23725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -23833,7 +23823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>125</v>
       </c>
@@ -23931,7 +23921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
@@ -24045,9 +24035,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -24145,27 +24135,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>153</v>
       </c>
@@ -24272,7 +24262,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -24280,7 +24270,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -24288,7 +24278,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>161</v>
       </c>
@@ -24398,7 +24388,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>165</v>
       </c>
@@ -24508,7 +24498,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>168</v>
       </c>
@@ -24618,7 +24608,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -24626,7 +24616,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -24736,7 +24726,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -24846,7 +24836,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -24956,7 +24946,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>182</v>
       </c>
@@ -25066,7 +25056,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -25176,7 +25166,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -25286,7 +25276,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>191</v>
       </c>
@@ -25396,7 +25386,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -25506,7 +25496,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>197</v>
       </c>
@@ -25616,7 +25606,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -25726,7 +25716,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -25836,7 +25826,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -25946,7 +25936,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>208</v>
       </c>
@@ -26056,7 +26046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>211</v>
       </c>
@@ -26166,7 +26156,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>214</v>
       </c>
@@ -26276,7 +26266,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -26386,7 +26376,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -26394,7 +26384,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -26402,7 +26392,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>161</v>
       </c>
@@ -26512,7 +26502,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -26622,7 +26612,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>230</v>
       </c>
@@ -26732,7 +26722,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>233</v>
       </c>
@@ -26740,7 +26730,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -26850,7 +26840,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -26960,7 +26950,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -27070,7 +27060,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -27180,7 +27170,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -27290,7 +27280,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>188</v>
       </c>
@@ -27400,7 +27390,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -27510,7 +27500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>194</v>
       </c>
@@ -27620,7 +27610,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -27730,7 +27720,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -27840,7 +27830,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>203</v>
       </c>
@@ -27950,7 +27940,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>206</v>
       </c>
@@ -28060,7 +28050,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -28170,7 +28160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -28280,7 +28270,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>263</v>
       </c>
@@ -28390,7 +28380,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -28500,7 +28490,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -28624,29 +28614,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>931</v>
       </c>
@@ -28681,7 +28671,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -28716,7 +28706,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -28751,7 +28741,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -28786,7 +28776,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -28821,7 +28811,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -28856,7 +28846,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -28891,7 +28881,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -28926,7 +28916,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -28961,7 +28951,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -28996,7 +28986,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -29031,7 +29021,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -29066,7 +29056,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -29101,7 +29091,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -29136,7 +29126,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -29171,7 +29161,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -29206,7 +29196,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -29241,7 +29231,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -29276,7 +29266,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -29311,7 +29301,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -29346,7 +29336,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -29381,7 +29371,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -29416,7 +29406,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -29451,7 +29441,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -29486,7 +29476,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -29521,7 +29511,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -29556,7 +29546,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -29591,7 +29581,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -29626,7 +29616,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -29661,7 +29651,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -29696,7 +29686,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -29731,7 +29721,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -29766,7 +29756,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -29787,9 +29777,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -29887,27 +29877,27 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>153</v>
       </c>
@@ -30014,7 +30004,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -30022,7 +30012,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>406</v>
       </c>
@@ -30030,7 +30020,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>407</v>
       </c>
@@ -30038,7 +30028,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>408</v>
       </c>
@@ -30148,7 +30138,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>410</v>
       </c>
@@ -30258,7 +30248,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>412</v>
       </c>
@@ -30368,7 +30358,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>414</v>
       </c>
@@ -30478,7 +30468,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>416</v>
       </c>
@@ -30588,7 +30578,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>288</v>
       </c>
@@ -30698,7 +30688,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>419</v>
       </c>
@@ -30808,7 +30798,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>421</v>
       </c>
@@ -30918,7 +30908,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>300</v>
       </c>
@@ -31028,7 +31018,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>424</v>
       </c>
@@ -31138,7 +31128,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>426</v>
       </c>
@@ -31146,7 +31136,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -31256,7 +31246,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>410</v>
       </c>
@@ -31366,7 +31356,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>412</v>
       </c>
@@ -31476,7 +31466,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>414</v>
       </c>
@@ -31586,7 +31576,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>416</v>
       </c>
@@ -31696,7 +31686,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>288</v>
       </c>
@@ -31806,7 +31796,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>419</v>
       </c>
@@ -31916,7 +31906,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>421</v>
       </c>
@@ -32026,7 +32016,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>300</v>
       </c>
@@ -32136,7 +32126,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>436</v>
       </c>
@@ -32246,7 +32236,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>438</v>
       </c>
@@ -32254,7 +32244,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>408</v>
       </c>
@@ -32364,7 +32354,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>410</v>
       </c>
@@ -32474,7 +32464,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>412</v>
       </c>
@@ -32584,7 +32574,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>414</v>
       </c>
@@ -32694,7 +32684,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>416</v>
       </c>
@@ -32804,7 +32794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -32914,7 +32904,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>419</v>
       </c>
@@ -33024,7 +33014,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>421</v>
       </c>
@@ -33134,7 +33124,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>300</v>
       </c>
@@ -33244,7 +33234,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>448</v>
       </c>
@@ -33354,7 +33344,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>450</v>
       </c>
@@ -33464,7 +33454,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>452</v>
       </c>
@@ -33472,7 +33462,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>407</v>
       </c>
@@ -33480,7 +33470,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>408</v>
       </c>
@@ -33590,7 +33580,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>410</v>
       </c>
@@ -33700,7 +33690,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>412</v>
       </c>
@@ -33810,7 +33800,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>414</v>
       </c>
@@ -33920,7 +33910,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>416</v>
       </c>
@@ -34030,7 +34020,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -34140,7 +34130,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>419</v>
       </c>
@@ -34250,7 +34240,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>421</v>
       </c>
@@ -34360,7 +34350,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>300</v>
       </c>
@@ -34470,7 +34460,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>424</v>
       </c>
@@ -34580,7 +34570,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>426</v>
       </c>
@@ -34588,7 +34578,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>408</v>
       </c>
@@ -34698,7 +34688,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>410</v>
       </c>
@@ -34808,7 +34798,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>412</v>
       </c>
@@ -34918,7 +34908,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>414</v>
       </c>
@@ -35028,7 +35018,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>416</v>
       </c>
@@ -35138,7 +35128,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>288</v>
       </c>
@@ -35248,7 +35238,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>419</v>
       </c>
@@ -35358,7 +35348,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>421</v>
       </c>
@@ -35468,7 +35458,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>300</v>
       </c>
@@ -35578,7 +35568,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>436</v>
       </c>
@@ -35688,7 +35678,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>438</v>
       </c>
@@ -35696,7 +35686,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>408</v>
       </c>
@@ -35806,7 +35796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>410</v>
       </c>
@@ -35916,7 +35906,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>412</v>
       </c>
@@ -36026,7 +36016,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>414</v>
       </c>
@@ -36136,7 +36126,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>416</v>
       </c>
@@ -36246,7 +36236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>288</v>
       </c>
@@ -36356,7 +36346,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>419</v>
       </c>
@@ -36466,7 +36456,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>421</v>
       </c>
@@ -36576,7 +36566,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>300</v>
       </c>
@@ -36686,7 +36676,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>448</v>
       </c>
@@ -36796,7 +36786,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>407</v>
       </c>
@@ -36807,7 +36797,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>408</v>
       </c>
@@ -36917,7 +36907,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>410</v>
       </c>
@@ -37027,7 +37017,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>412</v>
       </c>
@@ -37137,7 +37127,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>414</v>
       </c>
@@ -37247,7 +37237,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>416</v>
       </c>
@@ -37357,7 +37347,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>288</v>
       </c>
@@ -37467,7 +37457,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>419</v>
       </c>
@@ -37577,7 +37567,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>421</v>
       </c>
@@ -37687,7 +37677,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>300</v>
       </c>
@@ -37797,7 +37787,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>493</v>
       </c>
@@ -37907,7 +37897,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>495</v>
       </c>
@@ -37915,7 +37905,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>407</v>
       </c>
@@ -37923,7 +37913,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>408</v>
       </c>
@@ -38033,7 +38023,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>410</v>
       </c>
@@ -38143,7 +38133,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>412</v>
       </c>
@@ -38253,7 +38243,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>414</v>
       </c>
@@ -38363,7 +38353,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>416</v>
       </c>
@@ -38473,7 +38463,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>288</v>
       </c>
@@ -38583,7 +38573,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>419</v>
       </c>
@@ -38693,7 +38683,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>421</v>
       </c>
@@ -38803,7 +38793,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>300</v>
       </c>
@@ -38913,7 +38903,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>505</v>
       </c>
@@ -39020,7 +39010,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>426</v>
       </c>
@@ -39028,7 +39018,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>408</v>
       </c>
@@ -39138,7 +39128,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -39248,7 +39238,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>412</v>
       </c>
@@ -39358,7 +39348,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>414</v>
       </c>
@@ -39468,7 +39458,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>416</v>
       </c>
@@ -39578,7 +39568,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>288</v>
       </c>
@@ -39688,7 +39678,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>419</v>
       </c>
@@ -39798,7 +39788,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>421</v>
       </c>
@@ -39908,7 +39898,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>300</v>
       </c>
@@ -40018,7 +40008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>516</v>
       </c>
@@ -40125,7 +40115,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>438</v>
       </c>
@@ -40133,7 +40123,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>408</v>
       </c>
@@ -40243,7 +40233,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>410</v>
       </c>
@@ -40353,7 +40343,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>412</v>
       </c>
@@ -40463,7 +40453,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>414</v>
       </c>
@@ -40573,7 +40563,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>416</v>
       </c>
@@ -40683,7 +40673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>288</v>
       </c>
@@ -40793,7 +40783,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>419</v>
       </c>
@@ -40903,7 +40893,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>421</v>
       </c>
@@ -41013,7 +41003,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -41123,7 +41113,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>527</v>
       </c>
@@ -41230,7 +41220,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>529</v>
       </c>
@@ -41337,7 +41327,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>531</v>
       </c>
@@ -41345,7 +41335,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>407</v>
       </c>
@@ -41353,7 +41343,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>408</v>
       </c>
@@ -41463,7 +41453,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>410</v>
       </c>
@@ -41573,7 +41563,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>412</v>
       </c>
@@ -41683,7 +41673,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>414</v>
       </c>
@@ -41793,7 +41783,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -41903,7 +41893,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>288</v>
       </c>
@@ -42013,7 +42003,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>419</v>
       </c>
@@ -42123,7 +42113,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>421</v>
       </c>
@@ -42233,7 +42223,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>300</v>
       </c>
@@ -42343,7 +42333,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>424</v>
       </c>
@@ -42453,7 +42443,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -42461,7 +42451,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>408</v>
       </c>
@@ -42571,7 +42561,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -42681,7 +42671,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>412</v>
       </c>
@@ -42791,7 +42781,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>414</v>
       </c>
@@ -42901,7 +42891,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>416</v>
       </c>
@@ -43011,7 +43001,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>288</v>
       </c>
@@ -43121,7 +43111,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>419</v>
       </c>
@@ -43231,7 +43221,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>421</v>
       </c>
@@ -43341,7 +43331,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>300</v>
       </c>
@@ -43451,7 +43441,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>436</v>
       </c>
@@ -43561,7 +43551,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>438</v>
       </c>
@@ -43569,7 +43559,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>408</v>
       </c>
@@ -43679,7 +43669,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>410</v>
       </c>
@@ -43789,7 +43779,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>412</v>
       </c>
@@ -43899,7 +43889,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>414</v>
       </c>
@@ -44009,7 +43999,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -44119,7 +44109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>288</v>
       </c>
@@ -44229,7 +44219,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>419</v>
       </c>
@@ -44339,7 +44329,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>421</v>
       </c>
@@ -44449,7 +44439,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>300</v>
       </c>
@@ -44559,7 +44549,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>448</v>
       </c>
@@ -44669,7 +44659,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -44779,7 +44769,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -44787,7 +44777,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>495</v>
       </c>
@@ -44795,7 +44785,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>407</v>
       </c>
@@ -44803,7 +44793,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>408</v>
       </c>
@@ -44913,7 +44903,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>410</v>
       </c>
@@ -45023,7 +45013,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>412</v>
       </c>
@@ -45133,7 +45123,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>414</v>
       </c>
@@ -45243,7 +45233,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>416</v>
       </c>
@@ -45353,7 +45343,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>288</v>
       </c>
@@ -45463,7 +45453,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>419</v>
       </c>
@@ -45573,7 +45563,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>421</v>
       </c>
@@ -45683,7 +45673,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>300</v>
       </c>
@@ -45793,7 +45783,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>505</v>
       </c>
@@ -45900,7 +45890,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>426</v>
       </c>
@@ -45908,7 +45898,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>408</v>
       </c>
@@ -46018,7 +46008,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>410</v>
       </c>
@@ -46128,7 +46118,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>412</v>
       </c>
@@ -46238,7 +46228,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>414</v>
       </c>
@@ -46348,7 +46338,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>416</v>
       </c>
@@ -46458,7 +46448,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>288</v>
       </c>
@@ -46568,7 +46558,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>419</v>
       </c>
@@ -46678,7 +46668,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>421</v>
       </c>
@@ -46788,7 +46778,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -46898,7 +46888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>516</v>
       </c>
@@ -47005,7 +46995,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>438</v>
       </c>
@@ -47013,7 +47003,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>408</v>
       </c>
@@ -47123,7 +47113,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>410</v>
       </c>
@@ -47233,7 +47223,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>412</v>
       </c>
@@ -47343,7 +47333,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>414</v>
       </c>
@@ -47453,7 +47443,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>416</v>
       </c>
@@ -47563,7 +47553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>288</v>
       </c>
@@ -47673,7 +47663,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>419</v>
       </c>
@@ -47783,7 +47773,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>421</v>
       </c>
@@ -47893,7 +47883,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -48003,7 +47993,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>527</v>
       </c>
@@ -48110,7 +48100,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>529</v>
       </c>
@@ -48217,7 +48207,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>594</v>
       </c>
@@ -48225,7 +48215,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>407</v>
       </c>
@@ -48233,7 +48223,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>408</v>
       </c>
@@ -48343,7 +48333,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>410</v>
       </c>
@@ -48453,7 +48443,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>412</v>
       </c>
@@ -48563,7 +48553,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>414</v>
       </c>
@@ -48673,7 +48663,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>416</v>
       </c>
@@ -48783,7 +48773,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>288</v>
       </c>
@@ -48893,7 +48883,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>419</v>
       </c>
@@ -49003,7 +48993,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>421</v>
       </c>
@@ -49113,7 +49103,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>300</v>
       </c>
@@ -49223,7 +49213,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -49333,7 +49323,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -49341,7 +49331,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>408</v>
       </c>
@@ -49451,7 +49441,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>410</v>
       </c>
@@ -49561,7 +49551,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>412</v>
       </c>
@@ -49671,7 +49661,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>414</v>
       </c>
@@ -49781,7 +49771,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>416</v>
       </c>
@@ -49891,7 +49881,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>288</v>
       </c>
@@ -50001,7 +49991,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>419</v>
       </c>
@@ -50111,7 +50101,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -50221,7 +50211,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>300</v>
       </c>
@@ -50331,7 +50321,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>436</v>
       </c>
@@ -50441,7 +50431,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>438</v>
       </c>
@@ -50449,7 +50439,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>408</v>
       </c>
@@ -50559,7 +50549,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>410</v>
       </c>
@@ -50669,7 +50659,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>412</v>
       </c>
@@ -50779,7 +50769,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>414</v>
       </c>
@@ -50889,7 +50879,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>416</v>
       </c>
@@ -50999,7 +50989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>288</v>
       </c>
@@ -51109,7 +51099,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>419</v>
       </c>
@@ -51219,7 +51209,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>421</v>
       </c>
@@ -51329,7 +51319,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>300</v>
       </c>
@@ -51439,7 +51429,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -51549,7 +51539,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>276</v>
       </c>
@@ -51659,7 +51649,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -51667,7 +51657,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>626</v>
       </c>
@@ -51777,7 +51767,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>628</v>
       </c>
@@ -51887,7 +51877,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>630</v>
       </c>
@@ -51895,7 +51885,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>631</v>
       </c>
@@ -52005,7 +51995,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>633</v>
       </c>
@@ -52115,7 +52105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>635</v>
       </c>
@@ -52225,7 +52215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>637</v>
       </c>
@@ -52335,7 +52325,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -52343,7 +52333,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>639</v>
       </c>
@@ -52453,7 +52443,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>628</v>
       </c>
@@ -52563,7 +52553,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>630</v>
       </c>
@@ -52571,7 +52561,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>631</v>
       </c>
@@ -52681,7 +52671,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>633</v>
       </c>
@@ -52791,7 +52781,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>635</v>
       </c>
@@ -52901,7 +52891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>637</v>
       </c>
@@ -53011,7 +53001,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -53019,7 +53009,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>646</v>
       </c>
@@ -53129,7 +53119,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>648</v>
       </c>
@@ -53239,7 +53229,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>650</v>
       </c>
@@ -53349,7 +53339,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>630</v>
       </c>
@@ -53357,7 +53347,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="259" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>631</v>
       </c>
@@ -53467,7 +53457,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>633</v>
       </c>
@@ -53577,7 +53567,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>635</v>
       </c>
@@ -53687,7 +53677,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>637</v>
       </c>
@@ -53811,18 +53801,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -53848,7 +53838,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -53875,7 +53865,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -53903,7 +53893,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -53929,7 +53919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -53955,7 +53945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -53981,7 +53971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -54007,11 +53997,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -54033,19 +54023,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>129</v>
       </c>
@@ -54071,7 +54061,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -54099,7 +54089,7 @@
       <c r="I2" s="34"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -54126,7 +54116,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -54152,7 +54142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -54178,7 +54168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -54204,7 +54194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -54230,7 +54220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -54252,143 +54242,143 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1640625" style="15"/>
+    <col min="1" max="1" width="28.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
@@ -54403,7 +54393,7 @@
       <c r="N35" s="43"/>
       <c r="O35" s="43"/>
     </row>
-    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -54416,7 +54406,7 @@
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
     </row>
-    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -54429,7 +54419,7 @@
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
     </row>
-    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -54444,17 +54434,17 @@
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K45" s="15" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>947</v>
       </c>
@@ -54463,7 +54453,7 @@
         <v>1.326343</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>948</v>
       </c>
@@ -54472,7 +54462,7 @@
         <v>1079.7512820000002</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>942</v>
       </c>
@@ -54502,20 +54492,20 @@
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="15"/>
-    <col min="8" max="9" width="9.1640625" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="15"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="9" width="9.140625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>103</v>
       </c>
@@ -54534,7 +54524,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
@@ -54551,7 +54541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
@@ -54568,7 +54558,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
@@ -54585,12 +54575,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -54604,7 +54594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
@@ -54618,7 +54608,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -54632,7 +54622,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
@@ -54774,7 +54764,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -54919,7 +54909,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
@@ -55060,7 +55050,7 @@
         <v>1.2259779596081354E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
@@ -55199,7 +55189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
@@ -55340,7 +55330,7 @@
         <v>3.0818463927506423E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
@@ -55480,7 +55470,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" s="15" t="s">
         <v>125</v>
       </c>
@@ -55621,7 +55611,7 @@
         <v>8.6165104068937348E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31" t="s">
@@ -55764,7 +55754,7 @@
         <v>3.1168958329050089E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
@@ -55910,7 +55900,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>2</v>
       </c>
@@ -56050,7 +56040,7 @@
         <v>1.235369525889815E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
         <v>3</v>
       </c>
@@ -56189,7 +56179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C20" s="15" t="s">
         <v>4</v>
       </c>
@@ -56328,7 +56318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
@@ -56469,7 +56459,7 @@
         <v>0.12965319397757058</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>125</v>
       </c>
@@ -56610,7 +56600,7 @@
         <v>8.6165104068937001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31" t="s">
@@ -56753,7 +56743,7 @@
         <v>3.1136358282645159E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
@@ -56899,7 +56889,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>2</v>
       </c>
@@ -57040,7 +57030,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>3</v>
       </c>
@@ -57181,7 +57171,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
         <v>4</v>
       </c>
@@ -57320,7 +57310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
@@ -57461,7 +57451,7 @@
         <v>8.18920096381031E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
         <v>125</v>
       </c>
@@ -57602,7 +57592,7 @@
         <v>0.51993486392741062</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
@@ -57745,7 +57735,7 @@
         <v>0.17108784051909381</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>13</v>
       </c>
@@ -57890,7 +57880,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C32" s="15" t="s">
         <v>2</v>
       </c>
@@ -58031,7 +58021,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
         <v>3</v>
       </c>
@@ -58170,7 +58160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
         <v>4</v>
       </c>
@@ -58309,7 +58299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
         <v>5</v>
       </c>
@@ -58450,7 +58440,7 @@
         <v>2.7321073384308624E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
         <v>125</v>
       </c>
@@ -58591,7 +58581,7 @@
         <v>6.1785980743152003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31" t="s">
@@ -58734,7 +58724,7 @@
         <v>6.0995164686396177E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
@@ -58879,7 +58869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -59018,7 +59008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C40" s="15" t="s">
         <v>3</v>
       </c>
@@ -59157,7 +59147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="C41" s="15" t="s">
         <v>4</v>
@@ -59297,7 +59287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="C42" s="15" t="s">
         <v>5</v>
@@ -59437,7 +59427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="C43" s="15" t="s">
         <v>125</v>
@@ -59577,7 +59567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31" t="s">
@@ -59718,7 +59708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>14</v>
       </c>
@@ -59863,7 +59853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C46" s="15" t="s">
         <v>2</v>
       </c>
@@ -60002,7 +59992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
         <v>3</v>
       </c>
@@ -60141,7 +60131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C48" s="15" t="s">
         <v>4</v>
       </c>
@@ -60280,7 +60270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C49" s="15" t="s">
         <v>5</v>
       </c>
@@ -60419,7 +60409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C50" s="15" t="s">
         <v>125</v>
       </c>
@@ -60558,7 +60548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31" t="s">
@@ -60699,7 +60689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>15</v>
       </c>
@@ -60845,7 +60835,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C53" s="15" t="s">
         <v>2</v>
       </c>
@@ -60984,7 +60974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C54" s="15" t="s">
         <v>3</v>
       </c>
@@ -61123,7 +61113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C55" s="15" t="s">
         <v>4</v>
       </c>
@@ -61263,7 +61253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="C56" s="15" t="s">
         <v>5</v>
@@ -61403,7 +61393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="C57" s="15" t="s">
         <v>125</v>
@@ -61543,7 +61533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31" t="s">
@@ -61684,7 +61674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>15</v>
       </c>
@@ -61829,7 +61819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="C60" s="15" t="s">
         <v>2</v>
@@ -61969,7 +61959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="C61" s="15" t="s">
         <v>3</v>
@@ -62109,7 +62099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C62" s="15" t="s">
         <v>4</v>
       </c>
@@ -62248,7 +62238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C63" s="15" t="s">
         <v>5</v>
       </c>
@@ -62387,7 +62377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C64" s="15" t="s">
         <v>125</v>
       </c>
@@ -62526,7 +62516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31" t="s">
@@ -62667,7 +62657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>16</v>
       </c>
@@ -62812,7 +62802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C67" s="15" t="s">
         <v>2</v>
       </c>
@@ -62951,7 +62941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C68" s="15" t="s">
         <v>3</v>
       </c>
@@ -63090,7 +63080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C69" s="15" t="s">
         <v>4</v>
       </c>
@@ -63229,7 +63219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C70" s="15" t="s">
         <v>5</v>
       </c>
@@ -63368,7 +63358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C71" s="15" t="s">
         <v>125</v>
       </c>
@@ -63507,7 +63497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31" t="s">
@@ -63648,7 +63638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>16</v>
       </c>
@@ -63793,7 +63783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C74" s="15" t="s">
         <v>2</v>
       </c>
@@ -63932,7 +63922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C75" s="15" t="s">
         <v>3</v>
       </c>
@@ -64071,7 +64061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C76" s="15" t="s">
         <v>4</v>
       </c>
@@ -64210,7 +64200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C77" s="15" t="s">
         <v>5</v>
       </c>
@@ -64349,7 +64339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C78" s="15" t="s">
         <v>125</v>
       </c>
@@ -64488,7 +64478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31" t="s">
@@ -64629,7 +64619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>17</v>
       </c>
@@ -64775,7 +64765,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C81" s="15" t="s">
         <v>2</v>
       </c>
@@ -64915,7 +64905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C82" s="15" t="s">
         <v>3</v>
       </c>
@@ -65054,7 +65044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C83" s="15" t="s">
         <v>4</v>
       </c>
@@ -65194,7 +65184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C84" s="15" t="s">
         <v>5</v>
       </c>
@@ -65334,7 +65324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C85" s="15" t="s">
         <v>125</v>
       </c>
@@ -65474,7 +65464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31" t="s">
@@ -65616,7 +65606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>17</v>
       </c>
@@ -65761,7 +65751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C88" s="15" t="s">
         <v>2</v>
       </c>
@@ -65900,7 +65890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C89" s="15" t="s">
         <v>3</v>
       </c>
@@ -66039,7 +66029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C90" s="15" t="s">
         <v>4</v>
       </c>
@@ -66178,7 +66168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C91" s="15" t="s">
         <v>5</v>
       </c>
@@ -66317,7 +66307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C92" s="15" t="s">
         <v>125</v>
       </c>
@@ -66456,7 +66446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\MN\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{399B21AC-A0A1-4D53-87D3-A1A255E53ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66A10826-38D3-4D03-A7FC-F1B61FD70849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10335" yWindow="210" windowWidth="16800" windowHeight="16425" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="12735" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -6750,7 +6750,7 @@
         <v>987</v>
       </c>
       <c r="C1" s="48">
-        <v>44901</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10444,7 +10444,7 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AF4"/>
     </sheetView>
   </sheetViews>
@@ -10845,97 +10845,97 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="J4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AD4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AE4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="AF4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -17771,7 +17771,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -26010,7 +26010,7 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -30589,7 +30589,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -31752,7 +31752,7 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
@@ -55776,10 +55776,10 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
@@ -55994,16 +55994,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="8" width="23.28515625" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
